--- a/result_statistics/preliminary_detection.xlsx
+++ b/result_statistics/preliminary_detection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11720"/>
+    <workbookView windowWidth="28800" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,8 +94,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -159,14 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -174,38 +166,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -221,38 +191,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,8 +223,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,7 +246,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,7 +310,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +346,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,49 +430,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,97 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,16 +656,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,43 +720,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,142 +739,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,11 +884,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -897,9 +894,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -927,9 +921,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -939,19 +930,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1291,1788 +1273,1765 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="2" max="2" width="4.90178571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.35714285714286" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.90178571428571" customWidth="1"/>
+    <col min="3" max="3" width="5.35714285714286" style="1" customWidth="1"/>
     <col min="4" max="25" width="6.14285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+    <row r="1" spans="1:27">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:26">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+    <row r="2" spans="1:26">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24" t="s">
+      <c r="O2" s="17"/>
+      <c r="P2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24" t="s">
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="24" t="s">
+      <c r="S2" s="17"/>
+      <c r="T2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24" t="s">
+      <c r="U2" s="17"/>
+      <c r="V2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="24" t="s">
+      <c r="W2" s="17"/>
+      <c r="X2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="22"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="3"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Y3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="22"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="3"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>0.67</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>0.04</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>0.64</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>0.08</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>0.68</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="10">
         <v>0.15</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <v>0.74</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="10">
         <v>0.24</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="11">
         <v>0.61</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="10">
         <v>0.16</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="11">
         <v>0.67</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="11">
         <v>0.25</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="21">
         <v>0.65</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="11">
         <v>0.1</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="21">
         <v>0.7</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="11">
         <v>0.05</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="21">
         <v>0.59</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="11">
         <v>0.03</v>
       </c>
-      <c r="V4" s="27">
+      <c r="V4" s="21">
         <v>0.66</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="10">
         <v>0.04</v>
       </c>
-      <c r="X4" s="13">
+      <c r="X4" s="11">
         <v>0.66</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Y4" s="10">
         <v>0.04</v>
       </c>
-      <c r="Z4" s="22"/>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="3"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>0.61</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>0.06</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>0.48</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>0.07</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>0.57</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>0.19</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <v>0.63</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="10">
         <v>0.16</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="11">
         <v>0.51</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <v>0.17</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="11">
         <v>0.53</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="11">
         <v>0.17</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="21">
         <v>0.53</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="11">
         <v>0.11</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="21">
         <v>0.58</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="11">
         <v>0.06</v>
       </c>
-      <c r="T5" s="27">
+      <c r="T5" s="21">
         <v>0.51</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="11">
         <v>0.03</v>
       </c>
-      <c r="V5" s="27">
+      <c r="V5" s="21">
         <v>0.61</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="10">
         <v>0.06</v>
       </c>
-      <c r="X5" s="13">
+      <c r="X5" s="11">
         <v>0.61</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y5" s="10">
         <v>0.06</v>
       </c>
-      <c r="Z5" s="22"/>
+      <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="3"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>0.59</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>0.17</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>0.51</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>0.12</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <v>0.5</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="10">
         <v>0.19</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <v>0.57</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="10">
         <v>0.2</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="11">
         <v>0.55</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
         <v>0.26</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="11">
         <v>0.56</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="11">
         <v>0.19</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="21">
         <v>0.55</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="11">
         <v>0.21</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="21">
         <v>0.59</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="11">
         <v>0.2</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="21">
         <v>0.53</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="11">
         <v>0.13</v>
       </c>
-      <c r="V6" s="27">
+      <c r="V6" s="21">
         <v>0.6</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="10">
         <v>0.17</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X6" s="11">
         <v>0.59</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="10">
         <v>0.17</v>
       </c>
-      <c r="Z6" s="22"/>
+      <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="3"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>0.63</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>0.09</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>0.57</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>0.12</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <v>0.54</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <v>0.04</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <v>0.6</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="10">
         <v>0.11</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="11">
         <v>0.55</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="10">
         <v>0.25</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="11">
         <v>0.57</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="11">
         <v>0.15</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="21">
         <v>0.58</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="11">
         <v>0.16</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="21">
         <v>0.61</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="11">
         <v>0.14</v>
       </c>
-      <c r="T7" s="27">
+      <c r="T7" s="21">
         <v>0.57</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="11">
         <v>0.06</v>
       </c>
-      <c r="V7" s="27">
+      <c r="V7" s="21">
         <v>0.63</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="10">
         <v>0.09</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="11">
         <v>0.63</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Y7" s="10">
         <v>0.09</v>
       </c>
-      <c r="Z7" s="22"/>
+      <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="3"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>0.56</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>0.06</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>0.54</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>0.1</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <v>0.51</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <v>0.01</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <v>0.51</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="10">
         <v>0.08</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="11">
         <v>0.54</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="10">
         <v>0.2</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="11">
         <v>0.55</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="11">
         <v>0.12</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="21">
         <v>0.55</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="11">
         <v>0.13</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="21">
         <v>0.56</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="11">
         <v>0.11</v>
       </c>
-      <c r="T8" s="27">
+      <c r="T8" s="21">
         <v>0.54</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="11">
         <v>0.05</v>
       </c>
-      <c r="V8" s="27">
+      <c r="V8" s="21">
         <v>0.58</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="10">
         <v>0.06</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8" s="11">
         <v>0.56</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8" s="10">
         <v>0.06</v>
       </c>
-      <c r="Z8" s="22"/>
+      <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="3"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>0.57</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>0.06</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>0.54</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>0.12</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <v>0.56</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <v>0.12</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <v>0.54</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="10">
         <v>0.12</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="11">
         <v>0.54</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="10">
         <v>0.26</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="11">
         <v>0.55</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="11">
         <v>0.16</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="21">
         <v>0.54</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="11">
         <v>0.14</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="21">
         <v>0.57</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="11">
         <v>0.12</v>
       </c>
-      <c r="T9" s="27">
+      <c r="T9" s="21">
         <v>0.55</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="11">
         <v>0.05</v>
       </c>
-      <c r="V9" s="27">
+      <c r="V9" s="21">
         <v>0.57</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="10">
         <v>0.06</v>
       </c>
-      <c r="X9" s="13">
+      <c r="X9" s="11">
         <v>0.57</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="10">
         <v>0.06</v>
       </c>
-      <c r="Z9" s="22"/>
+      <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="3"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>0.7</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>0.08</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <v>0.62</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>0.11</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <v>0.54</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <v>0.03</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <v>0.72</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="10">
         <v>0.09</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="11">
         <v>0.57</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="10">
         <v>0.23</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="11">
         <v>0.64</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="11">
         <v>0.11</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="21">
         <v>0.64</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="11">
         <v>0.15</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="21">
         <v>0.7</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="11">
         <v>0.11</v>
       </c>
-      <c r="T10" s="27">
+      <c r="T10" s="21">
         <v>0.61</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="11">
         <v>0.05</v>
       </c>
-      <c r="V10" s="27">
+      <c r="V10" s="21">
         <v>0.71</v>
       </c>
-      <c r="W10" s="12">
+      <c r="W10" s="10">
         <v>0.08</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X10" s="11">
         <v>0.7</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Y10" s="10">
         <v>0.08</v>
       </c>
-      <c r="Z10" s="22"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="3"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>0.58</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>0.05</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <v>0.56</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>0.06</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <v>0.39</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <v>0.08</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="11">
         <v>0.57</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="10">
         <v>0.11</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="11">
         <v>0.57</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="10">
         <v>0.14</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="11">
         <v>0.56</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="11">
         <v>0.17</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="21">
         <v>0.55</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="11">
         <v>0.09</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="21">
         <v>0.56</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="11">
         <v>0.09</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T11" s="21">
         <v>0.55</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="11">
         <v>0.03</v>
       </c>
-      <c r="V11" s="27">
+      <c r="V11" s="21">
         <v>0.59</v>
       </c>
-      <c r="W11" s="12">
+      <c r="W11" s="10">
         <v>0.05</v>
       </c>
-      <c r="X11" s="13">
+      <c r="X11" s="11">
         <v>0.59</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11" s="10">
         <v>0.05</v>
       </c>
-      <c r="Z11" s="22"/>
+      <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="3"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>0.74</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>0.07</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="11">
         <v>0.65</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>0.09</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11">
         <v>0.58</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <v>0.04</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <v>0.66</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="10">
         <v>0.06</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="11">
         <v>0.64</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="10">
         <v>0.22</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="11">
         <v>0.64</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="11">
         <v>0.09</v>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="21">
         <v>0.66</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="11">
         <v>0.13</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="21">
         <v>0.66</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="11">
         <v>0.16</v>
       </c>
-      <c r="T12" s="27">
+      <c r="T12" s="21">
         <v>0.65</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="11">
         <v>0.04</v>
       </c>
-      <c r="V12" s="27">
+      <c r="V12" s="21">
         <v>0.74</v>
       </c>
-      <c r="W12" s="12">
+      <c r="W12" s="10">
         <v>0.07</v>
       </c>
-      <c r="X12" s="13">
+      <c r="X12" s="11">
         <v>0.74</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y12" s="10">
         <v>0.07</v>
       </c>
-      <c r="Z12" s="22"/>
+      <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="3"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>0.55</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>0.21</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="11">
         <v>0.5</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>0.18</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="11">
         <v>0.5</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <v>0.18</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="11">
         <v>0.52</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="10">
         <v>0.19</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="11">
         <v>0.52</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="10">
         <v>0.28</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="11">
         <v>0.53</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="11">
         <v>0.2</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="21">
         <v>0.56</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="11">
         <v>0.26</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="21">
         <v>0.61</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="11">
         <v>0.17</v>
       </c>
-      <c r="T13" s="27">
+      <c r="T13" s="21">
         <v>0.53</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="11">
         <v>0.2</v>
       </c>
-      <c r="V13" s="27">
+      <c r="V13" s="21">
         <v>0.56</v>
       </c>
-      <c r="W13" s="12">
+      <c r="W13" s="10">
         <v>0.21</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X13" s="11">
         <v>0.55</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y13" s="10">
         <v>0.21</v>
       </c>
-      <c r="Z13" s="22"/>
+      <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="3"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="12" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>0.68</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>0.09</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="11">
         <v>0.58</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>0.1</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="11">
         <v>0.54</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="10">
         <v>0.05</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="11">
         <v>0.63</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="10">
         <v>0.09</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="11">
         <v>0.56</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="10">
         <v>0.21</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="11">
         <v>0.59</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="11">
         <v>0.12</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="21">
         <v>0.59</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="11">
         <v>0.15</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="21">
         <v>0.66</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="11">
         <v>0.18</v>
       </c>
-      <c r="T14" s="27">
+      <c r="T14" s="21">
         <v>0.58</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="11">
         <v>0.05</v>
       </c>
-      <c r="V14" s="27">
+      <c r="V14" s="21">
         <v>0.68</v>
       </c>
-      <c r="W14" s="12">
+      <c r="W14" s="10">
         <v>0.09</v>
       </c>
-      <c r="X14" s="13">
+      <c r="X14" s="11">
         <v>0.67</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Y14" s="10">
         <v>0.09</v>
       </c>
-      <c r="Z14" s="22"/>
+      <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="3"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <v>0.59</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>0.05</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="11">
         <v>0.54</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>0.06</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <v>0.51</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="10">
         <v>0.04</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="11">
         <v>0.63</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="10">
         <v>0.07</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="11">
         <v>0.56</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="10">
         <v>0.17</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="11">
         <v>0.56</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="11">
         <v>0.13</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="21">
         <v>0.56</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="11">
         <v>0.11</v>
       </c>
-      <c r="R15" s="27">
+      <c r="R15" s="21">
         <v>0.57</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="11">
         <v>0.13</v>
       </c>
-      <c r="T15" s="27">
+      <c r="T15" s="21">
         <v>0.54</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="11">
         <v>0.03</v>
       </c>
-      <c r="V15" s="27">
+      <c r="V15" s="21">
         <v>0.6</v>
       </c>
-      <c r="W15" s="12">
+      <c r="W15" s="10">
         <v>0.05</v>
       </c>
-      <c r="X15" s="13">
+      <c r="X15" s="11">
         <v>0.59</v>
       </c>
-      <c r="Y15" s="12">
+      <c r="Y15" s="10">
         <v>0.05</v>
       </c>
-      <c r="Z15" s="22"/>
+      <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="3"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <v>0.62</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>0.07</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="11">
         <v>0.55</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>0.09</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="11">
         <v>0.54</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="10">
         <v>0.07</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="11">
         <v>0.66</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="10">
         <v>0.12</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="11">
         <v>0.55</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="10">
         <v>0.25</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="11">
         <v>0.57</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="11">
         <v>0.2</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="21">
         <v>0.58</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="11">
         <v>0.13</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="21">
         <v>0.62</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="11">
         <v>0.26</v>
       </c>
-      <c r="T16" s="27">
+      <c r="T16" s="21">
         <v>0.55</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="11">
         <v>0.04</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V16" s="21">
         <v>0.62</v>
       </c>
-      <c r="W16" s="12">
+      <c r="W16" s="10">
         <v>0.07</v>
       </c>
-      <c r="X16" s="13">
+      <c r="X16" s="11">
         <v>0.62</v>
       </c>
-      <c r="Y16" s="12">
+      <c r="Y16" s="10">
         <v>0.07</v>
       </c>
-      <c r="Z16" s="22"/>
+      <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="3"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>0.65</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>0.05</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <v>0.56</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>0.09</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="11">
         <v>0.6</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="10">
         <v>0.06</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="11">
         <v>0.65</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="10">
         <v>0.17</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="11">
         <v>0.57</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="10">
         <v>0.22</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="11">
         <v>0.55</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="11">
         <v>0.22</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="21">
         <v>0.54</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="11">
         <v>0.1</v>
       </c>
-      <c r="R17" s="27">
+      <c r="R17" s="21">
         <v>0.64</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="11">
         <v>0.08</v>
       </c>
-      <c r="T17" s="27">
+      <c r="T17" s="21">
         <v>0.54</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="11">
         <v>0.03</v>
       </c>
-      <c r="V17" s="27">
+      <c r="V17" s="21">
         <v>0.66</v>
       </c>
-      <c r="W17" s="12">
+      <c r="W17" s="10">
         <v>0.05</v>
       </c>
-      <c r="X17" s="13">
+      <c r="X17" s="11">
         <v>0.65</v>
       </c>
-      <c r="Y17" s="12">
+      <c r="Y17" s="10">
         <v>0.05</v>
       </c>
-      <c r="Z17" s="22"/>
+      <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="3"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="12" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <v>0.69</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>0.05</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <v>0.58</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>0.08</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <v>0.55</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="10">
         <v>0.01</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="11">
         <v>0.69</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="10">
         <v>0.1</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="11">
         <v>0.57</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="10">
         <v>0.19</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="11">
         <v>0.59</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="11">
         <v>0.14</v>
       </c>
-      <c r="P18" s="27">
+      <c r="P18" s="21">
         <v>0.59</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="11">
         <v>0.12</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="21">
         <v>0.64</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="11">
         <v>0.19</v>
       </c>
-      <c r="T18" s="27">
+      <c r="T18" s="21">
         <v>0.58</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="11">
         <v>0.03</v>
       </c>
-      <c r="V18" s="27">
+      <c r="V18" s="21">
         <v>0.69</v>
       </c>
-      <c r="W18" s="12">
+      <c r="W18" s="10">
         <v>0.05</v>
       </c>
-      <c r="X18" s="13">
+      <c r="X18" s="11">
         <v>0.69</v>
       </c>
-      <c r="Y18" s="12">
+      <c r="Y18" s="10">
         <v>0.05</v>
       </c>
-      <c r="Z18" s="22"/>
+      <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="3"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="12" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <v>0.71</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>0.05</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="11">
         <v>0.6</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="10">
         <v>0.08</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="11">
         <v>0.63</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="10">
         <v>0.14</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="11">
         <v>0.75</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="10">
         <v>0.11</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="11">
         <v>0.59</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="10">
         <v>0.16</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="11">
         <v>0.67</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="11">
         <v>0.17</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="21">
         <v>0.66</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="11">
         <v>0.12</v>
       </c>
-      <c r="R19" s="27">
+      <c r="R19" s="21">
         <v>0.66</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S19" s="11">
         <v>0.12</v>
       </c>
-      <c r="T19" s="27">
+      <c r="T19" s="21">
         <v>0.64</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U19" s="11">
         <v>0.03</v>
       </c>
-      <c r="V19" s="27">
+      <c r="V19" s="21">
         <v>0.72</v>
       </c>
-      <c r="W19" s="12">
+      <c r="W19" s="10">
         <v>0.05</v>
       </c>
-      <c r="X19" s="13">
+      <c r="X19" s="11">
         <v>0.71</v>
       </c>
-      <c r="Y19" s="12">
+      <c r="Y19" s="10">
         <v>0.05</v>
       </c>
-      <c r="Z19" s="22"/>
+      <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="3"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="12" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <v>0.54</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <v>0.23</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="11">
         <v>0.5</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <v>0.19</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="11">
         <v>0.5</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="10">
         <v>0.19</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="11">
         <v>0.5</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="10">
         <v>0.18</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="11">
         <v>0.52</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="10">
         <v>0.3</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="11">
         <v>0.52</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="11">
         <v>0.19</v>
       </c>
-      <c r="P20" s="27">
+      <c r="P20" s="21">
         <v>0.53</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="11">
         <v>0.27</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="21">
         <v>0.6</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="11">
         <v>0.17</v>
       </c>
-      <c r="T20" s="27">
+      <c r="T20" s="21">
         <v>0.52</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="11">
         <v>0.2</v>
       </c>
-      <c r="V20" s="27">
+      <c r="V20" s="21">
         <v>0.56</v>
       </c>
-      <c r="W20" s="12">
+      <c r="W20" s="10">
         <v>0.23</v>
       </c>
-      <c r="X20" s="13">
+      <c r="X20" s="11">
         <v>0.54</v>
       </c>
-      <c r="Y20" s="12">
+      <c r="Y20" s="10">
         <v>0.23</v>
       </c>
-      <c r="Z20" s="22"/>
+      <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="3"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="12" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="11">
         <v>0.62</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>0.09</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="11">
         <v>0.57</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <v>0.1</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="11">
         <v>0.54</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="10">
         <v>0.04</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="11">
         <v>0.64</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="10">
         <v>0.11</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="11">
         <v>0.56</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="10">
         <v>0.22</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="11">
         <v>0.58</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="11">
         <v>0.13</v>
       </c>
-      <c r="P21" s="27">
+      <c r="P21" s="21">
         <v>0.58</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="11">
         <v>0.16</v>
       </c>
-      <c r="R21" s="27">
+      <c r="R21" s="21">
         <v>0.64</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="11">
         <v>0.16</v>
       </c>
-      <c r="T21" s="27">
+      <c r="T21" s="21">
         <v>0.57</v>
       </c>
-      <c r="U21" s="13">
+      <c r="U21" s="11">
         <v>0.06</v>
       </c>
-      <c r="V21" s="27">
+      <c r="V21" s="21">
         <v>0.62</v>
       </c>
-      <c r="W21" s="12">
+      <c r="W21" s="10">
         <v>0.08</v>
       </c>
-      <c r="X21" s="13">
+      <c r="X21" s="11">
         <v>0.62</v>
       </c>
-      <c r="Y21" s="12">
+      <c r="Y21" s="10">
         <v>0.09</v>
       </c>
-      <c r="Z21" s="22"/>
+      <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="3"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="12" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="11">
         <v>0.61</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <v>0.06</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="11">
         <v>0.53</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <v>0.08</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="11">
         <v>0.51</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="10">
         <v>0.04</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="11">
         <v>0.53</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="10">
         <v>0.08</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="11">
         <v>0.54</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="10">
         <v>0.18</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="11">
         <v>0.54</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="11">
         <v>0.14</v>
       </c>
-      <c r="P22" s="27">
+      <c r="P22" s="21">
         <v>0.54</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="11">
         <v>0.13</v>
       </c>
-      <c r="R22" s="27">
+      <c r="R22" s="21">
         <v>0.58</v>
       </c>
-      <c r="S22" s="13">
+      <c r="S22" s="11">
         <v>0.11</v>
       </c>
-      <c r="T22" s="27">
+      <c r="T22" s="21">
         <v>0.55</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="11">
         <v>0.04</v>
       </c>
-      <c r="V22" s="27">
+      <c r="V22" s="21">
         <v>0.6</v>
       </c>
-      <c r="W22" s="12">
+      <c r="W22" s="10">
         <v>0.06</v>
       </c>
-      <c r="X22" s="13">
+      <c r="X22" s="11">
         <v>0.61</v>
       </c>
-      <c r="Y22" s="12">
+      <c r="Y22" s="10">
         <v>0.06</v>
       </c>
-      <c r="Z22" s="22"/>
+      <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="3"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="16" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="15">
         <v>0.65</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="13">
         <v>0.08</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="15">
         <v>0.57</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="13">
         <v>0.08</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="15">
         <v>0.54</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="13">
         <v>0.07</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="15">
         <v>0.67</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="13">
         <v>0.16</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="15">
         <v>0.56</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23" s="13">
         <v>0.18</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="15">
         <v>0.6</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="15">
         <v>0.24</v>
       </c>
-      <c r="P23" s="28">
+      <c r="P23" s="22">
         <v>0.6</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q23" s="15">
         <v>0.14</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="22">
         <v>0.6</v>
       </c>
-      <c r="S23" s="20">
+      <c r="S23" s="15">
         <v>0.29</v>
       </c>
-      <c r="T23" s="28">
+      <c r="T23" s="22">
         <v>0.59</v>
       </c>
-      <c r="U23" s="20">
+      <c r="U23" s="15">
         <v>0.05</v>
       </c>
-      <c r="V23" s="28">
+      <c r="V23" s="22">
         <v>0.65</v>
       </c>
-      <c r="W23" s="16">
+      <c r="W23" s="13">
         <v>0.08</v>
       </c>
-      <c r="X23" s="20">
+      <c r="X23" s="15">
         <v>0.65</v>
       </c>
-      <c r="Y23" s="16">
+      <c r="Y23" s="13">
         <v>0.08</v>
       </c>
-      <c r="Z23" s="22"/>
+      <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="21">
+      <c r="C24" s="7"/>
+      <c r="D24" s="16">
         <v>0.628</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="20">
         <v>0.086</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="16">
         <v>0.56</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="20">
         <v>0.1</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="16">
         <v>0.541</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="20">
         <v>0.087</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="16">
         <v>0.621</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="20">
         <v>0.128</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="16">
         <v>0.56</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="20">
         <v>0.213</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="16">
         <v>0.579</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24" s="20">
         <v>0.165</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="16">
         <v>0.58</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24" s="20">
         <v>0.146</v>
       </c>
-      <c r="R24" s="21">
+      <c r="R24" s="16">
         <v>0.618</v>
       </c>
-      <c r="S24" s="26">
+      <c r="S24" s="20">
         <v>0.145</v>
       </c>
-      <c r="T24" s="21">
+      <c r="T24" s="16">
         <v>0.565</v>
       </c>
-      <c r="U24" s="26">
+      <c r="U24" s="20">
         <v>0.062</v>
       </c>
-      <c r="V24" s="21">
+      <c r="V24" s="16">
         <v>0.633</v>
       </c>
-      <c r="W24" s="26">
+      <c r="W24" s="20">
         <v>0.085</v>
       </c>
-      <c r="X24" s="21">
+      <c r="X24" s="16">
         <v>0.628</v>
       </c>
-      <c r="Y24" s="26">
-        <v>1.628</v>
-      </c>
-      <c r="Z24" s="22"/>
+      <c r="Y24" s="20">
+        <v>0.086</v>
+      </c>
+      <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="3"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="3"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
+      <c r="A26" s="2"/>
+      <c r="Z26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="A1:AA1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -3085,13 +3044,13 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A1:A26"/>
+    <mergeCell ref="B25:Y25"/>
+    <mergeCell ref="A2:A26"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="Z2:Z26"/>
     <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B25:Y26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
